--- a/My_application/third_party/PHPExcel/finance/test3.xlsx
+++ b/My_application/third_party/PHPExcel/finance/test3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genny\Desktop\Mind Cloud Tribe\Videos\Videos 11_13_14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cloud\My_application\third_party\PHPExcel\finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219E03E6-CE99-40C2-BAB0-468360BA8E04}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Balance Sheet Excel" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Balance Sheet Excel'!$B$1:$H$31</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -156,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -822,7 +821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
@@ -830,23 +829,22 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23:H23"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1"/>
-    <col min="3" max="4" width="20.81640625" customWidth="1"/>
-    <col min="5" max="5" width="6.54296875" customWidth="1"/>
-    <col min="6" max="6" width="62.453125" customWidth="1"/>
-    <col min="7" max="8" width="20.81640625" customWidth="1"/>
-    <col min="9" max="9" width="5.81640625" customWidth="1"/>
-    <col min="10" max="10" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="3" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="62.42578125" customWidth="1"/>
+    <col min="7" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" s="4" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="40" t="s">
         <v>37</v>
       </c>
@@ -855,7 +853,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="2:9" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
@@ -876,7 +874,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>16</v>
       </c>
@@ -890,7 +888,7 @@
       <c r="H3" s="28"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="2:9" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
@@ -912,7 +910,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="2:9" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
@@ -934,7 +932,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="2:9" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
@@ -956,7 +954,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="2:9" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
@@ -978,7 +976,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="2:9" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
@@ -1000,7 +998,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="2:9" s="1" customFormat="1" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="21" t="s">
         <v>15</v>
       </c>
@@ -1024,7 +1022,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="2:9" s="1" customFormat="1" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
@@ -1042,7 +1040,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="2:9" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
         <v>14</v>
       </c>
@@ -1054,7 +1052,7 @@
       <c r="H11" s="42"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="2:9" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
@@ -1072,7 +1070,7 @@
       <c r="H12" s="29"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="2:9" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
@@ -1094,7 +1092,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="2:9" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>24</v>
       </c>
@@ -1116,7 +1114,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="2:9" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>25</v>
       </c>
@@ -1138,7 +1136,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="2:9" s="1" customFormat="1" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B16" s="21" t="s">
         <v>13</v>
       </c>
@@ -1164,7 +1162,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
       <c r="D17" s="43"/>
@@ -1174,7 +1172,7 @@
       <c r="H17" s="42"/>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="s">
         <v>12</v>
       </c>
@@ -1188,7 +1186,7 @@
       <c r="H18" s="29"/>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1210,7 +1208,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>2</v>
       </c>
@@ -1232,7 +1230,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="10" t="s">
         <v>2</v>
       </c>
@@ -1255,7 +1253,7 @@
       <c r="I21" s="20"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
         <v>11</v>
       </c>
@@ -1281,7 +1279,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
@@ -1290,7 +1288,7 @@
       <c r="G23" s="42"/>
       <c r="H23" s="42"/>
     </row>
-    <row r="24" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
         <v>7</v>
       </c>
@@ -1315,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="14" t="s">
@@ -1326,7 +1324,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="31"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
@@ -1335,7 +1333,7 @@
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="34"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35" t="str">
@@ -1347,7 +1345,7 @@
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="34"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35" t="str">
@@ -1359,7 +1357,7 @@
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="34"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
@@ -1368,7 +1366,7 @@
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B30" s="34"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35" t="str">
@@ -1380,7 +1378,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="34"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35" t="str">
@@ -1392,7 +1390,7 @@
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -1405,7 +1403,7 @@
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -1418,7 +1416,7 @@
       <c r="J33" s="30"/>
       <c r="K33" s="30"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -1431,7 +1429,7 @@
       <c r="J34" s="30"/>
       <c r="K34" s="30"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
@@ -1444,7 +1442,7 @@
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -1457,7 +1455,7 @@
       <c r="J36" s="30"/>
       <c r="K36" s="30"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -1470,7 +1468,7 @@
       <c r="J37" s="30"/>
       <c r="K37" s="30"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -1483,7 +1481,7 @@
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -1496,7 +1494,7 @@
       <c r="J39" s="30"/>
       <c r="K39" s="30"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="30"/>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
@@ -1509,7 +1507,7 @@
       <c r="J40" s="30"/>
       <c r="K40" s="30"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
@@ -1522,7 +1520,7 @@
       <c r="J41" s="30"/>
       <c r="K41" s="30"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
@@ -1535,7 +1533,7 @@
       <c r="J42" s="30"/>
       <c r="K42" s="30"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
@@ -1548,7 +1546,7 @@
       <c r="J43" s="30"/>
       <c r="K43" s="30"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
@@ -1561,7 +1559,7 @@
       <c r="J44" s="30"/>
       <c r="K44" s="30"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
@@ -1574,7 +1572,7 @@
       <c r="J45" s="30"/>
       <c r="K45" s="30"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
@@ -1587,7 +1585,7 @@
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -1600,7 +1598,7 @@
       <c r="J47" s="30"/>
       <c r="K47" s="30"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="30"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -1613,7 +1611,7 @@
       <c r="J48" s="30"/>
       <c r="K48" s="30"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="30"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -1626,7 +1624,7 @@
       <c r="J49" s="30"/>
       <c r="K49" s="30"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -1639,7 +1637,7 @@
       <c r="J50" s="30"/>
       <c r="K50" s="30"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="30"/>
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
@@ -1652,7 +1650,7 @@
       <c r="J51" s="30"/>
       <c r="K51" s="30"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="30"/>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -1665,7 +1663,7 @@
       <c r="J52" s="30"/>
       <c r="K52" s="30"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="30"/>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -1678,7 +1676,7 @@
       <c r="J53" s="30"/>
       <c r="K53" s="30"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="30"/>
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
@@ -1691,7 +1689,7 @@
       <c r="J54" s="30"/>
       <c r="K54" s="30"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="30"/>
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
@@ -1704,7 +1702,7 @@
       <c r="J55" s="30"/>
       <c r="K55" s="30"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="30"/>
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
@@ -1717,7 +1715,7 @@
       <c r="J56" s="30"/>
       <c r="K56" s="30"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
@@ -1730,7 +1728,7 @@
       <c r="J57" s="30"/>
       <c r="K57" s="30"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="30"/>
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
@@ -1743,7 +1741,7 @@
       <c r="J58" s="30"/>
       <c r="K58" s="30"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="30"/>
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
@@ -1756,7 +1754,7 @@
       <c r="J59" s="30"/>
       <c r="K59" s="30"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="30"/>
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
@@ -1769,7 +1767,7 @@
       <c r="J60" s="30"/>
       <c r="K60" s="30"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="30"/>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
@@ -1782,7 +1780,7 @@
       <c r="J61" s="30"/>
       <c r="K61" s="30"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
@@ -1795,7 +1793,7 @@
       <c r="J62" s="30"/>
       <c r="K62" s="30"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="30"/>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
@@ -1808,7 +1806,7 @@
       <c r="J63" s="30"/>
       <c r="K63" s="30"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
@@ -1821,7 +1819,7 @@
       <c r="J64" s="30"/>
       <c r="K64" s="30"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="30"/>
       <c r="B65" s="30"/>
       <c r="C65" s="30"/>
@@ -1834,7 +1832,7 @@
       <c r="J65" s="30"/>
       <c r="K65" s="30"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="30"/>
       <c r="B66" s="30"/>
       <c r="C66" s="30"/>
@@ -1847,7 +1845,7 @@
       <c r="J66" s="30"/>
       <c r="K66" s="30"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="30"/>
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
@@ -1860,7 +1858,7 @@
       <c r="J67" s="30"/>
       <c r="K67" s="30"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="30"/>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
@@ -1873,7 +1871,7 @@
       <c r="J68" s="30"/>
       <c r="K68" s="30"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="30"/>
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
@@ -1886,7 +1884,7 @@
       <c r="J69" s="30"/>
       <c r="K69" s="30"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
@@ -1899,7 +1897,7 @@
       <c r="J70" s="30"/>
       <c r="K70" s="30"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="30"/>
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
@@ -1912,7 +1910,7 @@
       <c r="J71" s="30"/>
       <c r="K71" s="30"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="30"/>
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
@@ -1925,7 +1923,7 @@
       <c r="J72" s="30"/>
       <c r="K72" s="30"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="30"/>
       <c r="B73" s="30"/>
       <c r="C73" s="30"/>
@@ -1938,7 +1936,7 @@
       <c r="J73" s="30"/>
       <c r="K73" s="30"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="30"/>
       <c r="B74" s="30"/>
       <c r="C74" s="30"/>

--- a/My_application/third_party/PHPExcel/finance/test3.xlsx
+++ b/My_application/third_party/PHPExcel/finance/test3.xlsx
@@ -557,6 +557,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>112835</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13335000" y="0"/>
+          <a:ext cx="1504950" cy="588755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -829,7 +872,7 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,5 +2005,6 @@
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup scale="58" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/My_application/third_party/PHPExcel/finance/test3.xlsx
+++ b/My_application/third_party/PHPExcel/finance/test3.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Balance Sheet Excel'!$B$1:$H$31</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -872,7 +872,7 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1140,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="11">
-        <v>-2000</v>
+        <v>2000</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="22">
-        <f>SUM(C12:C15)</f>
+        <f>SUM(C12+C13+C15)-C14</f>
         <v>13240</v>
       </c>
       <c r="D16" s="22">

--- a/My_application/third_party/PHPExcel/finance/test3.xlsx
+++ b/My_application/third_party/PHPExcel/finance/test3.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Cash</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>BALANCE SHEET EXCEL</t>
+  </si>
+  <si>
+    <t>Year 1</t>
+  </si>
+  <si>
+    <t>Year 2</t>
+  </si>
+  <si>
+    <t>Currency</t>
   </si>
 </sst>
 </file>
@@ -157,10 +166,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +317,20 @@
       <sz val="22"/>
       <color theme="3" tint="-0.249977111117893"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -414,119 +437,123 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="41" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="18" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="21" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -872,1125 +899,1129 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
-    <col min="3" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" customWidth="1"/>
-    <col min="6" max="6" width="62.42578125" customWidth="1"/>
-    <col min="7" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" style="25" customWidth="1"/>
+    <col min="3" max="4" width="20.85546875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="62.42578125" style="25" customWidth="1"/>
+    <col min="7" max="8" width="20.85546875" style="25" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="25" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" style="25" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="4" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" s="2" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="2:9" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="2:9" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2017</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="25" t="s">
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="26">
-        <v>2018</v>
-      </c>
-      <c r="H2" s="26">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="G2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="27" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
         <v>10000</v>
       </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="16" t="s">
+      <c r="D4" s="16">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="16">
         <v>8000</v>
       </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="16" t="s">
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="16">
         <v>2000</v>
       </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="16" t="s">
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="10" t="s">
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="16" t="s">
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="21" t="s">
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="19">
         <f>SUM(C4:C8)</f>
         <v>10000</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <f>SUM(D4:D8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="21">
         <f>SUM(G4:G9)</f>
         <v>10000</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="21">
         <f>SUM(H4:H9)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="16">
         <v>1200</v>
       </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="39" t="s">
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="16">
         <v>14040</v>
       </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="16" t="s">
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="16">
         <v>3000</v>
       </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="16">
         <v>2000</v>
       </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="16" t="s">
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="10" t="s">
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="11">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="16" t="s">
+      <c r="C15" s="16">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="2:9" s="1" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="19">
         <f>SUM(C12+C13+C15)-C14</f>
         <v>13240</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="19">
         <f>SUM(D12:D15)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="23" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="21">
         <f>SUM(G13:G15)</f>
         <v>3000</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="21">
         <f>SUM(H13:H15)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
       <c r="D17" s="43"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="19" t="s">
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="39" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="11">
-        <v>0</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="16" t="s">
+      <c r="C19" s="16">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="16">
         <v>8000</v>
       </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="H19" s="16">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="11">
-        <v>0</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="16" t="s">
+      <c r="C20" s="16">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="16">
         <v>2240</v>
       </c>
-      <c r="H20" s="11">
-        <v>0</v>
-      </c>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="10" t="s">
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" s="14" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="11">
-        <v>0</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="16" t="s">
+      <c r="C21" s="16">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="11">
-        <v>0</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="1:11" s="14" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="19">
         <f>SUM(C19:C21)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="19">
         <f>SUM(D19:D21)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="23" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="21">
         <f>SUM(G19:G21)</f>
         <v>10240</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="21">
         <f>SUM(H19:H21)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="20"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
-      <c r="E23" s="15"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
       <c r="H23" s="42"/>
     </row>
     <row r="24" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="28">
         <f>C9+C16+C22</f>
         <v>23240</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="28">
         <f>D9+D16+D22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="37" t="s">
+      <c r="E24" s="26"/>
+      <c r="F24" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="30">
         <f>G10+G16+G22</f>
         <v>23240</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="30">
         <f>H10+H16+H22</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
     </row>
     <row r="27" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35" t="str">
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37" t="str">
         <f>IF(D24=0,"",(H10+H16)/D24)</f>
         <v/>
       </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35" t="str">
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37" t="str">
         <f>IF(H10=0,"",D9/H10)</f>
         <v/>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
     </row>
     <row r="29" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="34"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35" t="str">
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37" t="str">
         <f>IF(H22=0,"",D24/H22)</f>
         <v/>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="34"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35" t="str">
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37" t="str">
         <f>IF(H22=0,"",(H10+H16)/H22)</f>
         <v/>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="30"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="30"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/My_application/third_party/PHPExcel/finance/test3.xlsx
+++ b/My_application/third_party/PHPExcel/finance/test3.xlsx
@@ -537,6 +537,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -548,12 +554,6 @@
     </xf>
     <xf numFmtId="43" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -899,7 +899,7 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,16 +916,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" s="2" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="45"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="2:9" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
@@ -1097,9 +1097,9 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="10"/>
       <c r="F10" s="20" t="s">
         <v>8</v>
@@ -1121,9 +1121,9 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
       <c r="I11" s="13"/>
     </row>
     <row r="12" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1237,13 +1237,13 @@
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:11" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:11" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1354,13 +1354,13 @@
       <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">

--- a/My_application/third_party/PHPExcel/finance/test3.xlsx
+++ b/My_application/third_party/PHPExcel/finance/test3.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Cash</t>
   </si>
@@ -152,13 +152,16 @@
     <t>BALANCE SHEET EXCEL</t>
   </si>
   <si>
-    <t>Year 1</t>
-  </si>
-  <si>
     <t>Year 2</t>
   </si>
   <si>
     <t>Currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year </t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -543,14 +546,14 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,8 +599,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>112835</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>230066</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2601</xdr:rowOff>
     </xdr:to>
@@ -896,34 +899,36 @@
     <tabColor theme="9" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="25" customWidth="1"/>
     <col min="2" max="2" width="62.42578125" style="25" customWidth="1"/>
-    <col min="3" max="4" width="20.85546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="25" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="25" customWidth="1"/>
     <col min="6" max="6" width="62.42578125" style="25" customWidth="1"/>
-    <col min="7" max="8" width="20.85546875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="25" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="25" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="5.85546875" style="25" customWidth="1"/>
     <col min="10" max="10" width="4.42578125" style="25" customWidth="1"/>
     <col min="11" max="16384" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" s="2" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="1"/>
       <c r="F1" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" s="41"/>
     </row>
@@ -932,20 +937,20 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1096,17 +1101,16 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="21">
-        <f>SUM(G4:G9)</f>
-        <v>10000</v>
+      <c r="F10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
       </c>
       <c r="H10" s="21">
         <f>SUM(H4:H9)</f>
@@ -1114,16 +1118,21 @@
       </c>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
+      <c r="F11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="21">
+        <f>SUM(G4:G10)</f>
+        <v>10000</v>
+      </c>
+      <c r="H11" s="42"/>
       <c r="I11" s="13"/>
     </row>
     <row r="12" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1137,10 +1146,8 @@
         <v>0</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="23"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="23"/>
       <c r="I12" s="13"/>
     </row>
@@ -1155,12 +1162,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="16">
-        <v>3000</v>
-      </c>
+      <c r="F13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="23"/>
       <c r="H13" s="16">
         <v>0</v>
       </c>
@@ -1178,10 +1183,10 @@
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="17" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G14" s="16">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H14" s="16">
         <v>0</v>
@@ -1200,7 +1205,7 @@
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="17" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G15" s="16">
         <v>0</v>
@@ -1210,7 +1215,7 @@
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" s="14" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="18" t="s">
         <v>13</v>
       </c>
@@ -1223,12 +1228,11 @@
         <v>0</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="21">
-        <f>SUM(G13:G15)</f>
-        <v>3000</v>
+      <c r="F16" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0</v>
       </c>
       <c r="H16" s="21">
         <f>SUM(H13:H15)</f>
@@ -1236,14 +1240,19 @@
       </c>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:11" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="14" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
+      <c r="F17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="21">
+        <f>SUM(G14:G16)</f>
+        <v>3000</v>
+      </c>
+      <c r="H17" s="42"/>
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:11" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1253,10 +1262,8 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="23"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="23"/>
       <c r="I18" s="13"/>
     </row>
@@ -1271,12 +1278,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="16">
-        <v>8000</v>
-      </c>
+      <c r="F19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="23"/>
       <c r="H19" s="16">
         <v>0</v>
       </c>
@@ -1294,10 +1299,10 @@
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="16">
-        <v>2240</v>
+        <v>8000</v>
       </c>
       <c r="H20" s="16">
         <v>0</v>
@@ -1316,10 +1321,10 @@
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="17" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="G21" s="16">
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="H21" s="16">
         <v>0</v>
@@ -1327,7 +1332,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:11" s="14" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="14" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="18" t="s">
         <v>11</v>
       </c>
@@ -1340,12 +1345,11 @@
         <v>0</v>
       </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="21">
-        <f>SUM(G19:G21)</f>
-        <v>10240</v>
+      <c r="F22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0</v>
       </c>
       <c r="H22" s="21">
         <f>SUM(H19:H21)</f>
@@ -1353,14 +1357,19 @@
       </c>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B23" s="45"/>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
+      <c r="F23" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="21">
+        <f>SUM(G20:G22)</f>
+        <v>10240</v>
+      </c>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
@@ -1375,13 +1384,8 @@
         <v>0</v>
       </c>
       <c r="E24" s="26"/>
-      <c r="F24" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="30">
-        <f>G10+G16+G22</f>
-        <v>23240</v>
-      </c>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="30">
         <f>H10+H16+H22</f>
         <v>0</v>
@@ -1394,8 +1398,13 @@
         <v>3</v>
       </c>
       <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="F25" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="30">
+        <f>G11+G17+G23</f>
+        <v>23240</v>
+      </c>
       <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1403,7 +1412,7 @@
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
       <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
+      <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
     </row>
@@ -1464,14 +1473,14 @@
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
     </row>
-    <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="39"/>
       <c r="I32" s="39"/>
       <c r="J32" s="39"/>
@@ -2023,12 +2032,13 @@
       <c r="J74" s="39"/>
       <c r="K74" s="39"/>
     </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F23:H23"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B23:D23"/>
